--- a/data/hotels_by_city/Houston/Houston_shard_113.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_113.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10259430-Reviews-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Houston-I-45-North.h15137766.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,241 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r585657744-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10259430</t>
+  </si>
+  <si>
+    <t>585657744</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Daniel Guiter Professional Services</t>
+  </si>
+  <si>
+    <t>5 Stars! Great Hotel! Great prices. Daisy M was a wonderful host! Breakfast was wonderful. I plan to stay here every time I'm in Houston! Easy freeway access, close to many restaurants and shopping on the north central part of town.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r585620103-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585620103</t>
+  </si>
+  <si>
+    <t>Incredible, Amazing, YOU must stay here!</t>
+  </si>
+  <si>
+    <t>This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.
+Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.
+I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot...This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot tell you how absolutely wonderful my stay has been and continues to be.PRITI PATEL The general manager goes above and beyond what I could’ve ever expected. I arrived early and she was able to assist me and checking in earlier than I had planned. She was extremely kind and sympathetic when knowing that my visit was here to say goodbye to my mother who passed away. I can tell you that this hotel is New, and is fully updated. The breakfast is absolutely amazing every day there’s something new and it is delicious! The pool is like a little oasis here in Houston! I don’t know what’s in the water but when you get out it feels as though you have the softest skin from the finest luxury spa. There’s even a waterfall at the pool. My room is I’m sure just like the others but it is huge and the beds are so incredibly comfortable with luxury linens and pillows… I am extremely picky with my bedding and I am loving the bedding and the entire room. It is so clean and so spacious. All staff is insanely amazing. The location is great, it is close to the airport and everything is within 10 to 20 minutes away super easy and you could always get a lift, and Uber or a taxi within less than three minutes. I definitely will recommend this to every single person that reads this post! I don’t just recommended I highly advise that you stay here!!! You will have an extremely pleasant, inviting and honestly luxurious stay!  For the price… You wouldn’t believe it! But it is luxury, better than many hotels I’ve stayed in for triple the price and the rooms cannot even compare. There is a flat screen television on the wall and it’s probably a minimum of a 45 inch television that because the rooms are so big, I could probably use an 80 inch flatscreen TV LOL if that’s a complaint....Which it’s not, that would be my only recommendation only because the rooms are so huge! But the channels here on the television our premium not just the basic channels you have for dish service and I have nothing but rave reviews for this hotel! Thank you Priti!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.
+Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.
+I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot...This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot tell you how absolutely wonderful my stay has been and continues to be.PRITI PATEL The general manager goes above and beyond what I could’ve ever expected. I arrived early and she was able to assist me and checking in earlier than I had planned. She was extremely kind and sympathetic when knowing that my visit was here to say goodbye to my mother who passed away. I can tell you that this hotel is New, and is fully updated. The breakfast is absolutely amazing every day there’s something new and it is delicious! The pool is like a little oasis here in Houston! I don’t know what’s in the water but when you get out it feels as though you have the softest skin from the finest luxury spa. There’s even a waterfall at the pool. My room is I’m sure just like the others but it is huge and the beds are so incredibly comfortable with luxury linens and pillows… I am extremely picky with my bedding and I am loving the bedding and the entire room. It is so clean and so spacious. All staff is insanely amazing. The location is great, it is close to the airport and everything is within 10 to 20 minutes away super easy and you could always get a lift, and Uber or a taxi within less than three minutes. I definitely will recommend this to every single person that reads this post! I don’t just recommended I highly advise that you stay here!!! You will have an extremely pleasant, inviting and honestly luxurious stay!  For the price… You wouldn’t believe it! But it is luxury, better than many hotels I’ve stayed in for triple the price and the rooms cannot even compare. There is a flat screen television on the wall and it’s probably a minimum of a 45 inch television that because the rooms are so big, I could probably use an 80 inch flatscreen TV LOL if that’s a complaint....Which it’s not, that would be my only recommendation only because the rooms are so huge! But the channels here on the television our premium not just the basic channels you have for dish service and I have nothing but rave reviews for this hotel! Thank you Priti!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r585080765-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585080765</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>the perfect place to get out of the  routine</t>
+  </si>
+  <si>
+    <t>the entrance is on  the service road of busy north freeway but the building is deep into the neighborhood of Remington Ranch so clean ,nice lobby and costumer service the best ! you can relax without leaving the city</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r577249751-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577249751</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Baby shower</t>
+  </si>
+  <si>
+    <t>I had been looking for a place to have my daughters baby shower and called this location I stopped by and was greeted by the manager Priti I booked it the day of the shower Prit and Daisy helped me so much they went above and beyond there job description I made the best choice by choosing this hotel thank you so much ladies everything was beautiful they didn't hesitate anytime I needed anything.Vonda</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r574836006-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574836006</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel during a basketball tournament and we had a wonderful experience. From the time we walked in, the lobby area was welcoming. The amenities are excellent from computer stations, cold drinks, to a large tv area. The GM, Priti Patel, was exceptional in making us feel welcome when we checked in, and followed up during our entire stay. These days I rarely see solid customer service and true excellence executed as flawlessly as she did during our stay. Our hotel room was clean, bright and very large. Overall our experience was great, and we will definitely stay here every time we are in the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel during a basketball tournament and we had a wonderful experience. From the time we walked in, the lobby area was welcoming. The amenities are excellent from computer stations, cold drinks, to a large tv area. The GM, Priti Patel, was exceptional in making us feel welcome when we checked in, and followed up during our entire stay. These days I rarely see solid customer service and true excellence executed as flawlessly as she did during our stay. Our hotel room was clean, bright and very large. Overall our experience was great, and we will definitely stay here every time we are in the Houston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r574812106-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574812106</t>
+  </si>
+  <si>
+    <t>Outstanding Service!</t>
+  </si>
+  <si>
+    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ☺️MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ☺️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r566367162-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566367162</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Wouldn't stay again</t>
+  </si>
+  <si>
+    <t>I found the reviews on TripAdvisor and Expedia make this hotel sound better than it actually is. There are many better hotels in the similar class. I would not stay here again.When we arrived to check in there was no front desk staff. I rang the bell on the counter 3 times and no one came out. A short time later someone came running into the hotel and ran past us without saying anything. They disappeared and then reappeared with a different golf shirt on. There was no apology. They pretended everything was normal.One night when we arrived back at the hotel the room was not cleaned we called the front desk. They sounded surprised that our room was not cleaned and implied it was our fault for leaving the do not disturb sign on the door (which we had not done). We had to request new towels and go pick them up ourselves. There was not attempt to provide any sort of compensation for the inconvenience.The breakfast was very simple and most items appeared unappealing. The fruit bowls were empty two days in a row. This was the only healthy option. When we asked they said they did not have any more.In general the room was adequate and modern. The TV was in a funny location not near the seating area and high on the wall.We did appreciate the modern self service laundry room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I found the reviews on TripAdvisor and Expedia make this hotel sound better than it actually is. There are many better hotels in the similar class. I would not stay here again.When we arrived to check in there was no front desk staff. I rang the bell on the counter 3 times and no one came out. A short time later someone came running into the hotel and ran past us without saying anything. They disappeared and then reappeared with a different golf shirt on. There was no apology. They pretended everything was normal.One night when we arrived back at the hotel the room was not cleaned we called the front desk. They sounded surprised that our room was not cleaned and implied it was our fault for leaving the do not disturb sign on the door (which we had not done). We had to request new towels and go pick them up ourselves. There was not attempt to provide any sort of compensation for the inconvenience.The breakfast was very simple and most items appeared unappealing. The fruit bowls were empty two days in a row. This was the only healthy option. When we asked they said they did not have any more.In general the room was adequate and modern. The TV was in a funny location not near the seating area and high on the wall.We did appreciate the modern self service laundry room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r565653611-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565653611</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Rip off</t>
+  </si>
+  <si>
+    <t>I booked this hotel for business travel 1 night, less than 24 hours ago.  My travel plans changed and I cancelled the reservations 10 minutes ago which is 3 full days before I am scheduled to arrive.  The hotel kept my full fee, no cancellation policy.  Folks, don't book here because if you plans change the hotel will keep your money.  I have clients right next to this hotel but I will never book at a comfort suites or or any other Choice Hotel chain to include Comfort Inn, Clarion, or Quality Inn to name a few.  Cmon folks, three days out with a reservation less than 24 old, you keep my money!  Very poor customer service.  Keep the 91.00 it has cost you far more in future business as I am a public speaker and I will share this story every time I speak about customer service.  Choice hotels just became the example of what not to be!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I booked this hotel for business travel 1 night, less than 24 hours ago.  My travel plans changed and I cancelled the reservations 10 minutes ago which is 3 full days before I am scheduled to arrive.  The hotel kept my full fee, no cancellation policy.  Folks, don't book here because if you plans change the hotel will keep your money.  I have clients right next to this hotel but I will never book at a comfort suites or or any other Choice Hotel chain to include Comfort Inn, Clarion, or Quality Inn to name a few.  Cmon folks, three days out with a reservation less than 24 old, you keep my money!  Very poor customer service.  Keep the 91.00 it has cost you far more in future business as I am a public speaker and I will share this story every time I speak about customer service.  Choice hotels just became the example of what not to be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r559588069-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559588069</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Daisy and the Staff Staff Stafffff!!</t>
+  </si>
+  <si>
+    <t>Business Trips for years in Houston and Many Hotels later... I found a hotel that has everything I need!  I Stay in hotels almost on a weekly basis in Houston and I really am amazed with the staff!  I mentioned just once the TV was out in the gym and like magic it was fixed!!  I like a staff who listens and pays attention... Thanks Daisy for all the help... she really did fit all my accommodations in a timely matter!! Daisy and the staff made all the difference between all average hotels and my new favorite Comfort Suites!! See you soon</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r523909538-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523909538</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Best Place to Stay by the Airport</t>
+  </si>
+  <si>
+    <t>If flying out of Bush International, it is hard to find a better place to stay for comfort, price and convenience.  They offer a shuttle to and from the airport that runs ever 30 mins.  However it is not 24 hr service. Very nice free breakfast in the morning along with a nice relaxing pool give this property that extra comfort you need prior to or coming back from traveling. We always stay here and you can leave your vehicle while traveling  They charge $7 a day.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r503382019-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503382019</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Very nice hotel, friendly staff, fair rates, good breakfast. Room was spaciou with data ports and free wifi. They offer snacks in the convenience store, even ice cream. They were helpful with suggestions for restaurants and shopping</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r488902413-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488902413</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome Experience </t>
+  </si>
+  <si>
+    <t>We(me, my wife and 2 kids) stayed at this hotel and it was truly an amazing experience. There were also group of kids that stayed here for their tournament. The hotel manager, Ms Priti Patel arrangement for some complimentary refreshments. My kids loved the strawberry lemonade and fresh bake cookies and the they even got to enjoy ice cream with the group of kids that came for their tournament. I would highly recommend this hotel for family stay and even if you need to book for large groups of people. Hotel manager, Ms Priti Patel made sure that all her guests were satisfied during their stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +773,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +805,789 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_113.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_113.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,117 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r613295380-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10259430</t>
+  </si>
+  <si>
+    <t>613295380</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>A very nice hotel for the price. Our room was comfortable and quite large. The hotel has a pool - the receptionist let us to swim there at late hours. The breakfast was nice. Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r609390519-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>609390519</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Pit stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used this hotel as a pit stop to corpus christi. The hotel was awesome! Very nice staff. Clean room. Fast internet. Good breakfast. Only downside was that they had biscuits and gravy for breakfast and the biscuits were horrible. I stuck with the saisage patties and waffles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r605015931-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605015931</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>The best hotel I’ve ever been to</t>
+  </si>
+  <si>
+    <t>This hotel went above and beyond to make our vacation great. The location is right outside of downtown Houston and not too far from the airport. The rooms were spacious and very well kept, the continental breakfast had a great selection and variety, and the staff were super friendly. Even the man who checked us out admitted he had only been working there a week and he was phenomenal and personable. I would recommend this to anyone traveling to Houston and when I visit elsewhere I’ll drfinitely look into more comfort suite locations! I don’t normally write reviews for places but their service was just that great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r600903242-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600903242</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>If you're a clean person ...Not worth the value</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel as it was close proximity to visiting family during my visit. The hotel itself is in decent condition however the housekeeping staff clearly takes short cuts when cleaning the room. From the start of my 5 day stay my husband and I dealt with dirty sheets, piles of dirty towels, and full trash cans. This is due to housekeeping skipping my room each day despite the calls I made each morning before heading out for the day to request service. After returning to the room after a long day it is not a good feeling to have to go down to the front desk to get towels and a new comforter to replace the stained one that was on our bed. We had our two month old baby so full trash cans for days with dirty diapers was terrible. Each day I informed the front desk that my request for service was not completed and each time they informed me that they would be sure to make sure housekeeping cleaned my room....again it never happened. When checking out I informed the General Manager Priti of my experience and she sounded more annoyed that i was complaining about the poor condition of my room. Eventually she called back to my room and told me she was going to credit me 1 night for free. I hate that I wasted money on this hotel at all when I...Stayed at this hotel as it was close proximity to visiting family during my visit. The hotel itself is in decent condition however the housekeeping staff clearly takes short cuts when cleaning the room. From the start of my 5 day stay my husband and I dealt with dirty sheets, piles of dirty towels, and full trash cans. This is due to housekeeping skipping my room each day despite the calls I made each morning before heading out for the day to request service. After returning to the room after a long day it is not a good feeling to have to go down to the front desk to get towels and a new comforter to replace the stained one that was on our bed. We had our two month old baby so full trash cans for days with dirty diapers was terrible. Each day I informed the front desk that my request for service was not completed and each time they informed me that they would be sure to make sure housekeeping cleaned my room....again it never happened. When checking out I informed the General Manager Priti of my experience and she sounded more annoyed that i was complaining about the poor condition of my room. Eventually she called back to my room and told me she was going to credit me 1 night for free. I hate that I wasted money on this hotel at all when I had other options that would have made for a better experience. In summary I would not recommend this hotel at all. I would never recommend that a traveler spend their money to be uncomfortable during their stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel as it was close proximity to visiting family during my visit. The hotel itself is in decent condition however the housekeeping staff clearly takes short cuts when cleaning the room. From the start of my 5 day stay my husband and I dealt with dirty sheets, piles of dirty towels, and full trash cans. This is due to housekeeping skipping my room each day despite the calls I made each morning before heading out for the day to request service. After returning to the room after a long day it is not a good feeling to have to go down to the front desk to get towels and a new comforter to replace the stained one that was on our bed. We had our two month old baby so full trash cans for days with dirty diapers was terrible. Each day I informed the front desk that my request for service was not completed and each time they informed me that they would be sure to make sure housekeeping cleaned my room....again it never happened. When checking out I informed the General Manager Priti of my experience and she sounded more annoyed that i was complaining about the poor condition of my room. Eventually she called back to my room and told me she was going to credit me 1 night for free. I hate that I wasted money on this hotel at all when I...Stayed at this hotel as it was close proximity to visiting family during my visit. The hotel itself is in decent condition however the housekeeping staff clearly takes short cuts when cleaning the room. From the start of my 5 day stay my husband and I dealt with dirty sheets, piles of dirty towels, and full trash cans. This is due to housekeeping skipping my room each day despite the calls I made each morning before heading out for the day to request service. After returning to the room after a long day it is not a good feeling to have to go down to the front desk to get towels and a new comforter to replace the stained one that was on our bed. We had our two month old baby so full trash cans for days with dirty diapers was terrible. Each day I informed the front desk that my request for service was not completed and each time they informed me that they would be sure to make sure housekeeping cleaned my room....again it never happened. When checking out I informed the General Manager Priti of my experience and she sounded more annoyed that i was complaining about the poor condition of my room. Eventually she called back to my room and told me she was going to credit me 1 night for free. I hate that I wasted money on this hotel at all when I had other options that would have made for a better experience. In summary I would not recommend this hotel at all. I would never recommend that a traveler spend their money to be uncomfortable during their stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r587502507-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587502507</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>So Comfy!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was Very clean!  Staff was super nice!  Enjoyed my stay and the bed was sssoooo comfortable - AC was on point because it was hot!  Free breakfast always nice too!  Wasy to get to right off the highway.  Will stay here again!  </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r585657744-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10259430</t>
-  </si>
-  <si>
     <t>585657744</t>
   </si>
   <si>
@@ -169,9 +268,6 @@
   </si>
   <si>
     <t>5 Stars! Great Hotel! Great prices. Daisy M was a wonderful host! Breakfast was wonderful. I plan to stay here every time I'm in Houston! Easy freeway access, close to many restaurants and shopping on the north central part of town.</t>
-  </si>
-  <si>
-    <t>June 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
@@ -194,9 +290,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.
 Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.
 I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot...This hotel is the best I have actually ever stayed in as far as cleanliness, roomie and as is in the room Is huge!, comfort of the beds, high-quality pillows, down comforters, extremely comfortable beds that are queen-sized Not full-size like other hotels, well-equipped mini kitchenette, the bathrooms are large with toiletries shampoo conditioner body llotion soap all top-notch and I am really really particular on the shampoo and conditioner I use, this stuff is awesome! Also I can talk about the amenities, gym is perfect size and has everything you need including a TV, the breakfasts Are insanely great with everything you could possibly imagine and changes every day, The pool is beautiful, complete with waterfall luxurious lounge chairs and towels.Most importantly the staff Was amazing and continues to just be wonderful every moment I walk past. Always a smile to greet you and wonderful when asking for anything you may need, Priti Patel Greeted me when I arrived and she made me feel so welcomed.I was originally planning to stay at a different quality Inn Suites… I won’t mention any names (I will be reviewing them completely different review on trip advisor, their manager was absolutely horrific… Except for one staff member told me about this property!!) but it was not what I expected, it was horrible… So before I even checked in I contacted customer service and they sent me over to here. I cannot tell you how absolutely wonderful my stay has been and continues to be.PRITI PATEL The general manager goes above and beyond what I could’ve ever expected. I arrived early and she was able to assist me and checking in earlier than I had planned. She was extremely kind and sympathetic when knowing that my visit was here to say goodbye to my mother who passed away. I can tell you that this hotel is New, and is fully updated. The breakfast is absolutely amazing every day there’s something new and it is delicious! The pool is like a little oasis here in Houston! I don’t know what’s in the water but when you get out it feels as though you have the softest skin from the finest luxury spa. There’s even a waterfall at the pool. My room is I’m sure just like the others but it is huge and the beds are so incredibly comfortable with luxury linens and pillows… I am extremely picky with my bedding and I am loving the bedding and the entire room. It is so clean and so spacious. All staff is insanely amazing. The location is great, it is close to the airport and everything is within 10 to 20 minutes away super easy and you could always get a lift, and Uber or a taxi within less than three minutes. I definitely will recommend this to every single person that reads this post! I don’t just recommended I highly advise that you stay here!!! You will have an extremely pleasant, inviting and honestly luxurious stay!  For the price… You wouldn’t believe it! But it is luxury, better than many hotels I’ve stayed in for triple the price and the rooms cannot even compare. There is a flat screen television on the wall and it’s probably a minimum of a 45 inch television that because the rooms are so big, I could probably use an 80 inch flatscreen TV LOL if that’s a complaint....Which it’s not, that would be my only recommendation only because the rooms are so huge! But the channels here on the television our premium not just the basic channels you have for dish service and I have nothing but rave reviews for this hotel! Thank you Priti!!!More</t>
@@ -217,6 +310,36 @@
     <t>the entrance is on  the service road of busy north freeway but the building is deep into the neighborhood of Remington Ranch so clean ,nice lobby and costumer service the best ! you can relax without leaving the city</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r584624686-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584624686</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>New and great!!</t>
+  </si>
+  <si>
+    <t>Still smells and looks brand new. The rooms are very nice and has everything in it that you need. The price was great and the hotel suited my needs on going to the Astros game. I would definitely recommend this hotel to anyone that wants a great stay in Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r578670960-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578670960</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Beautiful clean rooms with insanely friendly staff would definitely stay again. There's also a nice pool and a decent breakfast including waffles, eggs, sausage, oatmeal, 3 different kinds of cereal, yogurt, and several other items.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r577249751-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -262,10 +385,43 @@
     <t>Outstanding Service!</t>
   </si>
   <si>
-    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ☺️MoreShow less</t>
-  </si>
-  <si>
-    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ☺️More</t>
+    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ️MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and i love this place!!! Our stay so far is  nothing short of amazing... The property is well kept, and the rooms are new!! Nothing like staying where it’s nice and clean and safe.... Customer Service is OUTSTANDING!!!!! the GM Priti Patel is so sweet and understanding, she actually takes the time to know her guest rather then doing the basic business and go, Priti has set her property at a high standard for the competitors!! The fitness center is equipped with the latest equipment. I love the treadmill it’s real fancy lol.This is a great place to stay, whether it’s business related, vacationing or you just wanna get away... It’s our second home and my kids looovve it!!!! Book with them you won’t be disappointed... Thank me later ️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r571383753-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571383753</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Lovely stay</t>
+  </si>
+  <si>
+    <t>Oh my goodness my stay was amazing my kids loved it and the staff was very nice especially Ms.Priti she was very helpful and went over and beyond to help my kids and I with our stay. The hotel is very clean and relaxing. I will be booking this hotel very time I stay in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r568303042-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568303042</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Very nice, made me feel at home</t>
+  </si>
+  <si>
+    <t>My stay was very pleasant, Gina was very kind,funny, she didn't hesitate to help me out in anything i needed. The room was nice and clean bed was very comfortable! i will definitely be staying here again love their cookies that they have at the front desk very nice staff! Fitness center quite small but 24 hrs! Thank you.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r566367162-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
@@ -283,9 +439,6 @@
     <t>I found the reviews on TripAdvisor and Expedia make this hotel sound better than it actually is. There are many better hotels in the similar class. I would not stay here again.When we arrived to check in there was no front desk staff. I rang the bell on the counter 3 times and no one came out. A short time later someone came running into the hotel and ran past us without saying anything. They disappeared and then reappeared with a different golf shirt on. There was no apology. They pretended everything was normal.One night when we arrived back at the hotel the room was not cleaned we called the front desk. They sounded surprised that our room was not cleaned and implied it was our fault for leaving the do not disturb sign on the door (which we had not done). We had to request new towels and go pick them up ourselves. There was not attempt to provide any sort of compensation for the inconvenience.The breakfast was very simple and most items appeared unappealing. The fruit bowls were empty two days in a row. This was the only healthy option. When we asked they said they did not have any more.In general the room was adequate and modern. The TV was in a funny location not near the seating area and high on the wall.We did appreciate the modern self service laundry room.MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>I found the reviews on TripAdvisor and Expedia make this hotel sound better than it actually is. There are many better hotels in the similar class. I would not stay here again.When we arrived to check in there was no front desk staff. I rang the bell on the counter 3 times and no one came out. A short time later someone came running into the hotel and ran past us without saying anything. They disappeared and then reappeared with a different golf shirt on. There was no apology. They pretended everything was normal.One night when we arrived back at the hotel the room was not cleaned we called the front desk. They sounded surprised that our room was not cleaned and implied it was our fault for leaving the do not disturb sign on the door (which we had not done). We had to request new towels and go pick them up ourselves. There was not attempt to provide any sort of compensation for the inconvenience.The breakfast was very simple and most items appeared unappealing. The fruit bowls were empty two days in a row. This was the only healthy option. When we asked they said they did not have any more.In general the room was adequate and modern. The TV was in a funny location not near the seating area and high on the wall.We did appreciate the modern self service laundry room.More</t>
   </si>
   <si>
@@ -325,6 +478,45 @@
     <t>Business Trips for years in Houston and Many Hotels later... I found a hotel that has everything I need!  I Stay in hotels almost on a weekly basis in Houston and I really am amazed with the staff!  I mentioned just once the TV was out in the gym and like magic it was fixed!!  I like a staff who listens and pays attention... Thanks Daisy for all the help... she really did fit all my accommodations in a timely matter!! Daisy and the staff made all the difference between all average hotels and my new favorite Comfort Suites!! See you soon</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r558130172-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558130172</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Great place for overnight</t>
+  </si>
+  <si>
+    <t>We were looking for a place to stay on an overnight layover.I was impressed by how updated it was, the rooms were very nice.Staff was friendly and accommodating. We were given a room facing the highway and asked to be moved which was no problem.I wouldn't say the walls are think as I heard my neighbor snoring but overall a really good value for the price.Dear hotel if you read this: change/update the shower heads.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r539486145-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539486145</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Nice and New</t>
+  </si>
+  <si>
+    <t>This place must be fairly new. We were impressed with the room and amenities. The beds were very comfortable. Breakfast was sufficient. The only issue we had was that, after we came in from our outing the first day, the toilet wouldn’t flush. I got a plunger from the front desk but still no luck. Being at night, there was no maintenance on duty so the only solution was to change rooms. The issue here was our room was an accessible one and there were no other accessible rooms available. The desk clerk got us a room across the hall so at least we didn’t have to drag our things very far. However, it was still very inconvenient. The new room was actually bigger and nicer than the old one but without the needed handicapped equipment. But we made do. I would have considered a higher rating if not for this.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This place must be fairly new. We were impressed with the room and amenities. The beds were very comfortable. Breakfast was sufficient. The only issue we had was that, after we came in from our outing the first day, the toilet wouldn’t flush. I got a plunger from the front desk but still no luck. Being at night, there was no maintenance on duty so the only solution was to change rooms. The issue here was our room was an accessible one and there were no other accessible rooms available. The desk clerk got us a room across the hall so at least we didn’t have to drag our things very far. However, it was still very inconvenient. The new room was actually bigger and nicer than the old one but without the needed handicapped equipment. But we made do. I would have considered a higher rating if not for this.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r523909538-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -361,9 +553,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r488902413-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -380,6 +569,21 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259430-r457235857-Comfort_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457235857</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>This is a brand new facility. Rooms are very nice with all new fixtures and bedding is very comfortable. A good breakfast bar with standard Comfort Suites food. Staff was very helpful with getting taxi service for a great dinner at Salt Grass Steaks &amp; the next morning getting to the airport.</t>
   </si>
 </sst>
 </file>
@@ -962,19 +1166,19 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>58</v>
@@ -991,7 +1195,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1007,7 +1211,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1016,16 +1220,16 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1034,27 +1238,21 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1091,7 +1289,7 @@
         <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>70</v>
@@ -1100,18 +1298,22 @@
         <v>58</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1127,7 +1329,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1136,25 +1338,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1184,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1193,25 +1395,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1225,7 +1427,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1241,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1250,22 +1452,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
         <v>58</v>
@@ -1282,7 +1484,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1298,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1307,35 +1509,37 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1383,16 +1587,16 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1441,26 +1645,20 @@
         <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1483,7 +1681,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1492,45 +1690,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
         <v>108</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>109</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>110</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>111</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1555,22 +1747,22 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
         <v>115</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>116</v>
       </c>
-      <c r="K13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s">
-        <v>118</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
         <v>58</v>
@@ -1587,7 +1779,725 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
         <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65271</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
